--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3578132.07</v>
+        <v>10116656.82</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127790.43</v>
+        <v>210763.68</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263838.39</v>
+        <v>274913.65</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109046.85</v>
+        <v>108927.17</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160644.28</v>
+        <v>120958.62</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198270.08</v>
+        <v>198096.82</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68609.00999999999</v>
+        <v>71711.81</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145192.56</v>
+        <v>144917.53</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198507.79</v>
+        <v>198295.73</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>270188.2</v>
+        <v>267154.19</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>242510.47</v>
+        <v>240363.02</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197535.88</v>
+        <v>191555.12</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233277.02</v>
+        <v>233171.97</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>172148.76</v>
+        <v>172186.72</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119796.9</v>
+        <v>119823.26</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122748.63</v>
+        <v>122803.46</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>128960.57</v>
+        <v>129247.3</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137680.71</v>
+        <v>137526.26</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76359.27</v>
+        <v>76411.75</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31401.23</v>
+        <v>31416.18</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54893.06</v>
+        <v>58898.8</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38395.42</v>
+        <v>38499.05</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>72932.07000000001</v>
+        <v>62965.27</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78827.19</v>
+        <v>117745.01</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58832.63</v>
+        <v>58863.38</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19250.61</v>
+        <v>19248.39</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>281336.33</v>
+        <v>281360.7</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33750.25</v>
+        <v>33765.71</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9262.540000000001</v>
+        <v>9259.299999999999</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,207 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53935.37</v>
+        <v>53899.52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50214.04</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>74509.23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1348.27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3618.27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>394007.16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>33260.21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>58356.64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1098343.94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6647.54</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>469711.51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>162972.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>15206.1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10588.48</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>347610.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>709291.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6553.35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9259.299999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>726834.1899999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>515052.33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1849285.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -813,7 +813,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,278 +436,360 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10116656.82</v>
+        <v>127158.66</v>
+      </c>
+      <c r="C2" t="n">
+        <v>127119.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210763.68</v>
+        <v>274442.53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>278044.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274913.65</v>
+        <v>58852.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58845.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108927.17</v>
+        <v>36674.37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39837.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120958.62</v>
+        <v>109101.47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>108971.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198096.82</v>
+        <v>120572.61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>156909.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71711.81</v>
+        <v>6651.55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6660.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>144917.53</v>
+        <v>469640.22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>469823.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198295.73</v>
+        <v>19233.78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17157.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>267154.19</v>
+        <v>10598.36</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10593.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>240363.02</v>
+        <v>198019.15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>254254.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>191555.12</v>
-      </c>
+        <v>75580.53</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233171.97</v>
+        <v>50308.82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50132.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>172186.72</v>
+        <v>705424.67</v>
+      </c>
+      <c r="C15" t="n">
+        <v>691572.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119823.26</v>
+        <v>145631.62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>145015.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122803.46</v>
+        <v>198401.83</v>
+      </c>
+      <c r="C17" t="n">
+        <v>198285.29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>129247.3</v>
+        <v>3611.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3549.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137526.26</v>
+        <v>394209.96</v>
+      </c>
+      <c r="C19" t="n">
+        <v>394376.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76411.75</v>
+        <v>74511.12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74425.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31416.18</v>
+        <v>162537.45</v>
+      </c>
+      <c r="C21" t="n">
+        <v>162599.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58898.8</v>
+        <v>1346.69</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1350.57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38499.05</v>
+        <v>137863.47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>158535.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62965.27</v>
+        <v>137676.49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>155943.39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117745.01</v>
+        <v>272522.47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>291688.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58863.38</v>
+        <v>235187.64</v>
+      </c>
+      <c r="C26" t="n">
+        <v>240254.59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19248.39</v>
+        <v>328039.87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>328136.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>281360.7</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2070784.18</v>
       </c>
     </row>
     <row r="29">
@@ -717,227 +799,294 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33765.71</v>
+        <v>33759.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33770.96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9259.299999999999</v>
+        <v>6552</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6549.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53899.52</v>
+        <v>185409.77</v>
+      </c>
+      <c r="C31" t="n">
+        <v>190537.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50214.04</v>
+        <v>233463.96</v>
+      </c>
+      <c r="C32" t="n">
+        <v>243337.28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74509.23</v>
+        <v>62213.87</v>
+      </c>
+      <c r="C33" t="n">
+        <v>55055.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1348.27</v>
+        <v>9261.33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12858.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3618.27</v>
+        <v>9261.33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12858.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>394007.16</v>
+        <v>35229.25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36730.42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33260.21</v>
+        <v>58341.97</v>
+      </c>
+      <c r="C37" t="n">
+        <v>58335.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58356.64</v>
+        <v>53933.48</v>
+      </c>
+      <c r="C38" t="n">
+        <v>53903.51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1098343.94</v>
+        <v>76454.31</v>
+      </c>
+      <c r="C39" t="n">
+        <v>84374.39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6647.54</v>
+        <v>62891.57</v>
+      </c>
+      <c r="C40" t="n">
+        <v>62927.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>469711.51</v>
+        <v>172274.55</v>
+      </c>
+      <c r="C41" t="n">
+        <v>172138.29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>162972.4</v>
+        <v>122767.32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>110024.63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15206.1</v>
+        <v>119486.88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>119468.33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10588.48</v>
+        <v>669480.97</v>
+      </c>
+      <c r="C44" t="n">
+        <v>669264.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>347610.99</v>
+        <v>514332.72</v>
+      </c>
+      <c r="C45" t="n">
+        <v>514459.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709291.8</v>
+        <v>1098920.59</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1098686.84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6553.35</v>
-      </c>
+        <v>97164.08</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9259.299999999999</v>
+        <v>31393.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31412.83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>726834.1899999999</v>
+        <v>15190.56</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15230.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>515052.33</v>
+        <v>170671.98</v>
+      </c>
+      <c r="C50" t="n">
+        <v>219060.68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1849285.38</v>
+        <v>8021582.87</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10076791.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,645 +443,501 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127158.66</v>
-      </c>
-      <c r="C2" t="n">
-        <v>127119.16</v>
+        <v>10410690.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274442.53</v>
-      </c>
-      <c r="C3" t="n">
-        <v>278044.48</v>
+        <v>216889.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58852.23</v>
-      </c>
-      <c r="C4" t="n">
-        <v>58845.08</v>
+        <v>127119.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36674.37</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39837.91</v>
+        <v>278044.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109101.47</v>
-      </c>
-      <c r="C6" t="n">
-        <v>108971.22</v>
+        <v>58845.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120572.61</v>
-      </c>
-      <c r="C7" t="n">
-        <v>156909.19</v>
+        <v>39837.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6651.55</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6660.79</v>
+        <v>108971.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>469640.22</v>
-      </c>
-      <c r="C9" t="n">
-        <v>469823.83</v>
+        <v>47.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19233.78</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17157.68</v>
+        <v>156909.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10598.36</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10593.73</v>
+        <v>267484.69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>198019.15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>254254.97</v>
+        <v>6660.79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75580.53</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>469823.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50308.82</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50132.93</v>
+        <v>17157.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>705424.67</v>
-      </c>
-      <c r="C15" t="n">
-        <v>691572.96</v>
+        <v>10593.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145631.62</v>
-      </c>
-      <c r="C16" t="n">
-        <v>145015.28</v>
+        <v>254254.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>198401.83</v>
-      </c>
-      <c r="C17" t="n">
-        <v>198285.29</v>
+        <v>79224.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3611.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3549.04</v>
+        <v>50132.93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394209.96</v>
-      </c>
-      <c r="C19" t="n">
-        <v>394376.61</v>
+        <v>691572.96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74511.12</v>
-      </c>
-      <c r="C20" t="n">
-        <v>74425.36</v>
+        <v>145015.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>162537.45</v>
-      </c>
-      <c r="C21" t="n">
-        <v>162599.43</v>
+        <v>198285.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1346.69</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1350.57</v>
+        <v>74425.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>137863.47</v>
-      </c>
-      <c r="C23" t="n">
-        <v>158535.18</v>
+        <v>1350.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>137676.49</v>
-      </c>
-      <c r="C24" t="n">
-        <v>155943.39</v>
+        <v>3549.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>272522.47</v>
-      </c>
-      <c r="C25" t="n">
-        <v>291688.7</v>
+        <v>394376.61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>235187.64</v>
-      </c>
-      <c r="C26" t="n">
-        <v>240254.59</v>
+        <v>162599.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>328039.87</v>
-      </c>
-      <c r="C27" t="n">
-        <v>328136.08</v>
+        <v>158535.18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>2070784.18</v>
+          <t>FBA Calificado</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>155943.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33759.6</v>
-      </c>
-      <c r="C29" t="n">
-        <v>33770.96</v>
+        <v>291688.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6552</v>
-      </c>
-      <c r="C30" t="n">
-        <v>6549.5</v>
+        <v>240254.59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185409.77</v>
-      </c>
-      <c r="C31" t="n">
-        <v>190537.56</v>
+        <v>328136.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233463.96</v>
-      </c>
-      <c r="C32" t="n">
-        <v>243337.28</v>
+        <v>2070784.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62213.87</v>
-      </c>
-      <c r="C33" t="n">
-        <v>55055.52</v>
+        <v>33770.96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9261.33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12858.09</v>
+        <v>6549.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9261.33</v>
-      </c>
-      <c r="C35" t="n">
-        <v>12858.09</v>
+        <v>190537.56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35229.25</v>
-      </c>
-      <c r="C36" t="n">
-        <v>36730.42</v>
+        <v>243337.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58341.97</v>
-      </c>
-      <c r="C37" t="n">
-        <v>58335.01</v>
+        <v>55055.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>53933.48</v>
-      </c>
-      <c r="C38" t="n">
-        <v>53903.51</v>
+        <v>12858.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76454.31</v>
-      </c>
-      <c r="C39" t="n">
-        <v>84374.39</v>
+        <v>36730.42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62891.57</v>
-      </c>
-      <c r="C40" t="n">
-        <v>62927.31</v>
+        <v>58335.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172274.55</v>
-      </c>
-      <c r="C41" t="n">
-        <v>172138.29</v>
+        <v>53903.51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>122767.32</v>
-      </c>
-      <c r="C42" t="n">
-        <v>110024.63</v>
+        <v>84374.39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119486.88</v>
-      </c>
-      <c r="C43" t="n">
-        <v>119468.33</v>
+        <v>62927.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>669480.97</v>
-      </c>
-      <c r="C44" t="n">
-        <v>669264.28</v>
+        <v>172138.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>514332.72</v>
-      </c>
-      <c r="C45" t="n">
-        <v>514459.8</v>
+        <v>110024.63</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098920.59</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1098686.84</v>
+        <v>119468.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97164.08</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>669264.28</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>31393.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>31412.83</v>
+        <v>514459.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15190.56</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15230.95</v>
+        <v>1098686.84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>170671.98</v>
-      </c>
-      <c r="C50" t="n">
-        <v>219060.68</v>
+        <v>31412.83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8021582.87</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10076791.22</v>
+        <v>15230.95</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,638 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10410690.33</v>
+        <v>127119.16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>126964.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216889.38</v>
+        <v>278044.48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>278103.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127119.16</v>
+        <v>58845.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58867.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278044.48</v>
+        <v>39837.91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58845.08</v>
+        <v>108971.22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>116254.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39837.91</v>
+        <v>47.74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108971.22</v>
+        <v>156909.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>156874.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.74</v>
+        <v>267484.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>282623.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156909.19</v>
+        <v>6660.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6658.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>267484.69</v>
+        <v>469823.83</v>
+      </c>
+      <c r="C11" t="n">
+        <v>470073.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6660.79</v>
+        <v>17157.68</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17153.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469823.83</v>
+        <v>10593.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10604.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17157.68</v>
+        <v>254254.97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260837.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10593.73</v>
+        <v>79224.77</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83969.24000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>254254.97</v>
+        <v>50132.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91430.75999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79224.77</v>
+        <v>691572.96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>691866.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50132.93</v>
-      </c>
+        <v>145015.28</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691572.96</v>
-      </c>
+        <v>198285.29</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145015.28</v>
-      </c>
+        <v>74425.36</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>198285.29</v>
-      </c>
+        <v>1350.57</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74425.36</v>
-      </c>
+        <v>3549.04</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1350.57</v>
-      </c>
+        <v>394376.61</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3549.04</v>
-      </c>
+        <v>162599.43</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394376.61</v>
-      </c>
+        <v>158535.18</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162599.43</v>
-      </c>
+        <v>155943.39</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158535.18</v>
-      </c>
+        <v>291688.7</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155943.39</v>
+        <v>240254.59</v>
+      </c>
+      <c r="C28" t="n">
+        <v>252311.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>291688.7</v>
+        <v>328136.08</v>
+      </c>
+      <c r="C29" t="n">
+        <v>328105.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>240254.59</v>
+        <v>2070784.18</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2149672.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>328136.08</v>
+        <v>33770.96</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38760.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2070784.18</v>
+        <v>6549.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6539.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33770.96</v>
+        <v>190537.56</v>
+      </c>
+      <c r="C33" t="n">
+        <v>190593.79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6549.5</v>
+        <v>243337.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>243463.29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190537.56</v>
+        <v>55055.52</v>
+      </c>
+      <c r="C35" t="n">
+        <v>57695.35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>243337.28</v>
+        <v>12858.09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12855.73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55055.52</v>
+        <v>36730.42</v>
+      </c>
+      <c r="C37" t="n">
+        <v>41466</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12858.09</v>
+        <v>58335.01</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58295.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36730.42</v>
+        <v>53903.51</v>
+      </c>
+      <c r="C39" t="n">
+        <v>53920.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58335.01</v>
-      </c>
+        <v>84374.39</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53903.51</v>
+        <v>62927.31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>62929.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84374.39</v>
+        <v>172138.29</v>
+      </c>
+      <c r="C42" t="n">
+        <v>172156.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62927.31</v>
+        <v>110024.63</v>
+      </c>
+      <c r="C43" t="n">
+        <v>110045.92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172138.29</v>
+        <v>119468.33</v>
+      </c>
+      <c r="C44" t="n">
+        <v>148621.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110024.63</v>
+        <v>669264.28</v>
+      </c>
+      <c r="C45" t="n">
+        <v>668821.3100000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>119468.33</v>
+        <v>514459.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>625236.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>669264.28</v>
+        <v>1098686.84</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1099068.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>514459.8</v>
+        <v>31412.83</v>
+      </c>
+      <c r="C48" t="n">
+        <v>38662.05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1098686.84</v>
+        <v>15230.95</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15184.49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>31412.83</v>
+        <v>216889.38</v>
+      </c>
+      <c r="C50" t="n">
+        <v>245189.98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15230.95</v>
+        <v>10410690.33</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9072029.390000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>126964.74</v>
       </c>
+      <c r="D2" t="n">
+        <v>153313.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>278103.23</v>
       </c>
+      <c r="D3" t="n">
+        <v>277897.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>58867.61</v>
       </c>
+      <c r="D4" t="n">
+        <v>61873.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>45298</v>
       </c>
+      <c r="D5" t="n">
+        <v>45349.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>116254.12</v>
       </c>
+      <c r="D6" t="n">
+        <v>116299.79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>45.63</v>
       </c>
+      <c r="D7" t="n">
+        <v>44.43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>156874.24</v>
       </c>
+      <c r="D8" t="n">
+        <v>177549.07</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>282623.59</v>
       </c>
+      <c r="D9" t="n">
+        <v>282780.62</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>6658.4</v>
       </c>
+      <c r="D10" t="n">
+        <v>6653.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>470073.19</v>
       </c>
+      <c r="D11" t="n">
+        <v>469469.49</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>17153.48</v>
       </c>
+      <c r="D12" t="n">
+        <v>17147.37</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>10604.76</v>
       </c>
+      <c r="D13" t="n">
+        <v>10607.71</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>260837.5</v>
       </c>
+      <c r="D14" t="n">
+        <v>240986.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>83969.24000000001</v>
       </c>
+      <c r="D15" t="n">
+        <v>83969.10000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>91430.75999999999</v>
       </c>
+      <c r="D16" t="n">
+        <v>91562.03999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -652,6 +702,9 @@
       <c r="C17" t="n">
         <v>691866.86</v>
       </c>
+      <c r="D17" t="n">
+        <v>692596.8199999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -663,6 +716,9 @@
         <v>145015.28</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>162915.44</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -674,6 +730,9 @@
         <v>198285.29</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>198486.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -685,6 +744,9 @@
         <v>74425.36</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>74378.22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -696,6 +758,9 @@
         <v>1350.57</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1349.61</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -707,6 +772,9 @@
         <v>3549.04</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>3545.99</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -718,6 +786,9 @@
         <v>394376.61</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>389188.58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -729,6 +800,9 @@
         <v>162599.43</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>162946.19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -740,6 +814,9 @@
         <v>158535.18</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>191950.87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -751,6 +828,9 @@
         <v>155943.39</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>198637.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -762,6 +842,9 @@
         <v>291688.7</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>285945.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -775,6 +858,9 @@
       <c r="C28" t="n">
         <v>252311.39</v>
       </c>
+      <c r="D28" t="n">
+        <v>251454.83</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -788,6 +874,9 @@
       <c r="C29" t="n">
         <v>328105.35</v>
       </c>
+      <c r="D29" t="n">
+        <v>282961.03</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -801,6 +890,9 @@
       <c r="C30" t="n">
         <v>2149672.19</v>
       </c>
+      <c r="D30" t="n">
+        <v>2150227.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -814,6 +906,9 @@
       <c r="C31" t="n">
         <v>38760.08</v>
       </c>
+      <c r="D31" t="n">
+        <v>36724.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -827,6 +922,9 @@
       <c r="C32" t="n">
         <v>6539.17</v>
       </c>
+      <c r="D32" t="n">
+        <v>6544.97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -840,6 +938,9 @@
       <c r="C33" t="n">
         <v>190593.79</v>
       </c>
+      <c r="D33" t="n">
+        <v>182400.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -853,6 +954,9 @@
       <c r="C34" t="n">
         <v>243463.29</v>
       </c>
+      <c r="D34" t="n">
+        <v>199188.79</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -866,6 +970,9 @@
       <c r="C35" t="n">
         <v>57695.35</v>
       </c>
+      <c r="D35" t="n">
+        <v>74078.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -879,6 +986,9 @@
       <c r="C36" t="n">
         <v>12855.73</v>
       </c>
+      <c r="D36" t="n">
+        <v>14254.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -892,6 +1002,9 @@
       <c r="C37" t="n">
         <v>41466</v>
       </c>
+      <c r="D37" t="n">
+        <v>43975.47</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -905,6 +1018,9 @@
       <c r="C38" t="n">
         <v>58295.6</v>
       </c>
+      <c r="D38" t="n">
+        <v>58328.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -918,6 +1034,9 @@
       <c r="C39" t="n">
         <v>53920.24</v>
       </c>
+      <c r="D39" t="n">
+        <v>39432.72</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -929,6 +1048,9 @@
         <v>84374.39</v>
       </c>
       <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>96852.81</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -942,6 +1064,9 @@
       <c r="C41" t="n">
         <v>62929.25</v>
       </c>
+      <c r="D41" t="n">
+        <v>70910.78999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -955,6 +1080,9 @@
       <c r="C42" t="n">
         <v>172156.64</v>
       </c>
+      <c r="D42" t="n">
+        <v>172307.03</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -968,6 +1096,9 @@
       <c r="C43" t="n">
         <v>110045.92</v>
       </c>
+      <c r="D43" t="n">
+        <v>103511.47</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -981,6 +1112,9 @@
       <c r="C44" t="n">
         <v>148621.13</v>
       </c>
+      <c r="D44" t="n">
+        <v>148597.38</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -994,6 +1128,9 @@
       <c r="C45" t="n">
         <v>668821.3100000001</v>
       </c>
+      <c r="D45" t="n">
+        <v>634406.28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1007,6 +1144,9 @@
       <c r="C46" t="n">
         <v>625236.7</v>
       </c>
+      <c r="D46" t="n">
+        <v>914059.45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1020,6 +1160,9 @@
       <c r="C47" t="n">
         <v>1099068.37</v>
       </c>
+      <c r="D47" t="n">
+        <v>1098054.74</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1033,6 +1176,9 @@
       <c r="C48" t="n">
         <v>38662.05</v>
       </c>
+      <c r="D48" t="n">
+        <v>38658.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1046,6 +1192,9 @@
       <c r="C49" t="n">
         <v>15184.49</v>
       </c>
+      <c r="D49" t="n">
+        <v>24722.09</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1059,6 +1208,9 @@
       <c r="C50" t="n">
         <v>245189.98</v>
       </c>
+      <c r="D50" t="n">
+        <v>229981.14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1071,6 +1223,9 @@
       </c>
       <c r="C51" t="n">
         <v>9072029.390000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11039094.74</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>153313.4</v>
       </c>
+      <c r="E2" t="n">
+        <v>153275.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>277897.95</v>
       </c>
+      <c r="E3" t="n">
+        <v>296208.28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>61873.11</v>
       </c>
+      <c r="E4" t="n">
+        <v>61841.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>45349.19</v>
       </c>
+      <c r="E5" t="n">
+        <v>45343.49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>116299.79</v>
       </c>
+      <c r="E6" t="n">
+        <v>116237.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>44.43</v>
       </c>
+      <c r="E7" t="n">
+        <v>45.24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>177549.07</v>
       </c>
+      <c r="E8" t="n">
+        <v>213845.57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>282780.62</v>
       </c>
+      <c r="E9" t="n">
+        <v>282743.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>6653.1</v>
       </c>
+      <c r="E10" t="n">
+        <v>6656.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>469469.49</v>
       </c>
+      <c r="E11" t="n">
+        <v>469287.72</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>17147.37</v>
       </c>
+      <c r="E12" t="n">
+        <v>17166.51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>10607.71</v>
       </c>
+      <c r="E13" t="n">
+        <v>10589.39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>240986.5</v>
       </c>
+      <c r="E14" t="n">
+        <v>240997.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -673,6 +717,9 @@
       <c r="D15" t="n">
         <v>83969.10000000001</v>
       </c>
+      <c r="E15" t="n">
+        <v>87477.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -689,6 +736,9 @@
       <c r="D16" t="n">
         <v>91562.03999999999</v>
       </c>
+      <c r="E16" t="n">
+        <v>91468.85000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -704,6 +754,9 @@
       </c>
       <c r="D17" t="n">
         <v>692596.8199999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>690457.64</v>
       </c>
     </row>
     <row r="18">
@@ -719,6 +772,9 @@
       <c r="D18" t="n">
         <v>162915.44</v>
       </c>
+      <c r="E18" t="n">
+        <v>162969.61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -733,6 +789,9 @@
       <c r="D19" t="n">
         <v>198486.05</v>
       </c>
+      <c r="E19" t="n">
+        <v>198499.78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -747,6 +806,9 @@
       <c r="D20" t="n">
         <v>74378.22</v>
       </c>
+      <c r="E20" t="n">
+        <v>74481.42999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -761,6 +823,9 @@
       <c r="D21" t="n">
         <v>1349.61</v>
       </c>
+      <c r="E21" t="n">
+        <v>1350.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -775,6 +840,9 @@
       <c r="D22" t="n">
         <v>3545.99</v>
       </c>
+      <c r="E22" t="n">
+        <v>3553.11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -789,6 +857,9 @@
       <c r="D23" t="n">
         <v>389188.58</v>
       </c>
+      <c r="E23" t="n">
+        <v>380274.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -803,6 +874,9 @@
       <c r="D24" t="n">
         <v>162946.19</v>
       </c>
+      <c r="E24" t="n">
+        <v>162574.85</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -817,6 +891,9 @@
       <c r="D25" t="n">
         <v>191950.87</v>
       </c>
+      <c r="E25" t="n">
+        <v>223159.47</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -831,6 +908,9 @@
       <c r="D26" t="n">
         <v>198637.42</v>
       </c>
+      <c r="E26" t="n">
+        <v>211105.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -845,6 +925,9 @@
       <c r="D27" t="n">
         <v>285945.47</v>
       </c>
+      <c r="E27" t="n">
+        <v>313502.85</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -861,6 +944,9 @@
       <c r="D28" t="n">
         <v>251454.83</v>
       </c>
+      <c r="E28" t="n">
+        <v>266538.16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -877,6 +963,9 @@
       <c r="D29" t="n">
         <v>282961.03</v>
       </c>
+      <c r="E29" t="n">
+        <v>270838.26</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -893,6 +982,9 @@
       <c r="D30" t="n">
         <v>2150227.08</v>
       </c>
+      <c r="E30" t="n">
+        <v>2150216.36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -909,6 +1001,9 @@
       <c r="D31" t="n">
         <v>36724.08</v>
       </c>
+      <c r="E31" t="n">
+        <v>39780.55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -925,6 +1020,9 @@
       <c r="D32" t="n">
         <v>6544.97</v>
       </c>
+      <c r="E32" t="n">
+        <v>6550.18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -941,6 +1039,9 @@
       <c r="D33" t="n">
         <v>182400.56</v>
       </c>
+      <c r="E33" t="n">
+        <v>182586.53</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -957,6 +1058,9 @@
       <c r="D34" t="n">
         <v>199188.79</v>
       </c>
+      <c r="E34" t="n">
+        <v>199419.57</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -973,6 +1077,9 @@
       <c r="D35" t="n">
         <v>74078.03</v>
       </c>
+      <c r="E35" t="n">
+        <v>77494.33</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -989,6 +1096,9 @@
       <c r="D36" t="n">
         <v>14254.6</v>
       </c>
+      <c r="E36" t="n">
+        <v>14260.34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1005,6 +1115,9 @@
       <c r="D37" t="n">
         <v>43975.47</v>
       </c>
+      <c r="E37" t="n">
+        <v>50224.11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1021,6 +1134,9 @@
       <c r="D38" t="n">
         <v>58328.41</v>
       </c>
+      <c r="E38" t="n">
+        <v>58361.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1036,6 +1152,9 @@
       </c>
       <c r="D39" t="n">
         <v>39432.72</v>
+      </c>
+      <c r="E39" t="n">
+        <v>42387.34</v>
       </c>
     </row>
     <row r="40">
@@ -1051,6 +1170,9 @@
       <c r="D40" t="n">
         <v>96852.81</v>
       </c>
+      <c r="E40" t="n">
+        <v>96876.12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1067,6 +1189,9 @@
       <c r="D41" t="n">
         <v>70910.78999999999</v>
       </c>
+      <c r="E41" t="n">
+        <v>72882.78999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1083,6 +1208,9 @@
       <c r="D42" t="n">
         <v>172307.03</v>
       </c>
+      <c r="E42" t="n">
+        <v>172237.48</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1099,6 +1227,9 @@
       <c r="D43" t="n">
         <v>103511.47</v>
       </c>
+      <c r="E43" t="n">
+        <v>101587.13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1115,6 +1246,9 @@
       <c r="D44" t="n">
         <v>148597.38</v>
       </c>
+      <c r="E44" t="n">
+        <v>148483.45</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1131,6 +1265,9 @@
       <c r="D45" t="n">
         <v>634406.28</v>
       </c>
+      <c r="E45" t="n">
+        <v>526647.15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1147,6 +1284,7 @@
       <c r="D46" t="n">
         <v>914059.45</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1163,6 +1301,9 @@
       <c r="D47" t="n">
         <v>1098054.74</v>
       </c>
+      <c r="E47" t="n">
+        <v>1098877.42</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1179,6 +1320,9 @@
       <c r="D48" t="n">
         <v>38658.6</v>
       </c>
+      <c r="E48" t="n">
+        <v>38638.69</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1195,6 +1339,7 @@
       <c r="D49" t="n">
         <v>24722.09</v>
       </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1211,6 +1356,9 @@
       <c r="D50" t="n">
         <v>229981.14</v>
       </c>
+      <c r="E50" t="n">
+        <v>220217.43</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1226,6 +1374,9 @@
       </c>
       <c r="D51" t="n">
         <v>11039094.74</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10130001.57</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>153275.95</v>
       </c>
+      <c r="F2" t="n">
+        <v>178378.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>296208.28</v>
       </c>
+      <c r="F3" t="n">
+        <v>279554.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>61841.25</v>
       </c>
+      <c r="F4" t="n">
+        <v>61804.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>45343.49</v>
       </c>
+      <c r="F5" t="n">
+        <v>45343.61</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>116237.97</v>
       </c>
+      <c r="F6" t="n">
+        <v>116195.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>45.24</v>
       </c>
+      <c r="F7" t="n">
+        <v>44.29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>213845.57</v>
       </c>
+      <c r="F8" t="n">
+        <v>213807</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>282743.97</v>
       </c>
+      <c r="F9" t="n">
+        <v>282799.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>6656.6</v>
       </c>
+      <c r="F10" t="n">
+        <v>6665.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>469287.72</v>
       </c>
+      <c r="F11" t="n">
+        <v>469567.18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>17166.51</v>
       </c>
+      <c r="F12" t="n">
+        <v>17029.81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>10589.39</v>
       </c>
+      <c r="F13" t="n">
+        <v>10602.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>240997.65</v>
       </c>
+      <c r="F14" t="n">
+        <v>241010.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,6 +764,9 @@
       <c r="E15" t="n">
         <v>87477.25</v>
       </c>
+      <c r="F15" t="n">
+        <v>90733.19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -739,6 +786,9 @@
       <c r="E16" t="n">
         <v>91468.85000000001</v>
       </c>
+      <c r="F16" t="n">
+        <v>91539.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -757,6 +807,9 @@
       </c>
       <c r="E17" t="n">
         <v>690457.64</v>
+      </c>
+      <c r="F17" t="n">
+        <v>690309.1800000001</v>
       </c>
     </row>
     <row r="18">
@@ -775,6 +828,9 @@
       <c r="E18" t="n">
         <v>162969.61</v>
       </c>
+      <c r="F18" t="n">
+        <v>162808.69</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -792,6 +848,9 @@
       <c r="E19" t="n">
         <v>198499.78</v>
       </c>
+      <c r="F19" t="n">
+        <v>198456.52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -809,6 +868,9 @@
       <c r="E20" t="n">
         <v>74481.42999999999</v>
       </c>
+      <c r="F20" t="n">
+        <v>74476.23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -826,6 +888,9 @@
       <c r="E21" t="n">
         <v>1350.1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1347.57</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -843,6 +908,9 @@
       <c r="E22" t="n">
         <v>3553.11</v>
       </c>
+      <c r="F22" t="n">
+        <v>3555.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -860,6 +928,9 @@
       <c r="E23" t="n">
         <v>380274.03</v>
       </c>
+      <c r="F23" t="n">
+        <v>377667.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -877,6 +948,9 @@
       <c r="E24" t="n">
         <v>162574.85</v>
       </c>
+      <c r="F24" t="n">
+        <v>163042.9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -894,6 +968,9 @@
       <c r="E25" t="n">
         <v>223159.47</v>
       </c>
+      <c r="F25" t="n">
+        <v>230213.01</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -911,6 +988,9 @@
       <c r="E26" t="n">
         <v>211105.25</v>
       </c>
+      <c r="F26" t="n">
+        <v>211655.21</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -928,6 +1008,9 @@
       <c r="E27" t="n">
         <v>313502.85</v>
       </c>
+      <c r="F27" t="n">
+        <v>313123.28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -947,6 +1030,9 @@
       <c r="E28" t="n">
         <v>266538.16</v>
       </c>
+      <c r="F28" t="n">
+        <v>268480.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -966,6 +1052,9 @@
       <c r="E29" t="n">
         <v>270838.26</v>
       </c>
+      <c r="F29" t="n">
+        <v>270950.98</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -985,6 +1074,9 @@
       <c r="E30" t="n">
         <v>2150216.36</v>
       </c>
+      <c r="F30" t="n">
+        <v>2000377.14</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1004,6 +1096,9 @@
       <c r="E31" t="n">
         <v>39780.55</v>
       </c>
+      <c r="F31" t="n">
+        <v>39762.86</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1023,6 +1118,9 @@
       <c r="E32" t="n">
         <v>6550.18</v>
       </c>
+      <c r="F32" t="n">
+        <v>6541.84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1042,6 +1140,9 @@
       <c r="E33" t="n">
         <v>182586.53</v>
       </c>
+      <c r="F33" t="n">
+        <v>172587.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1061,6 +1162,9 @@
       <c r="E34" t="n">
         <v>199419.57</v>
       </c>
+      <c r="F34" t="n">
+        <v>199428.85</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1080,6 +1184,9 @@
       <c r="E35" t="n">
         <v>77494.33</v>
       </c>
+      <c r="F35" t="n">
+        <v>76845.96000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1099,6 +1206,9 @@
       <c r="E36" t="n">
         <v>14260.34</v>
       </c>
+      <c r="F36" t="n">
+        <v>14266.11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1118,6 +1228,9 @@
       <c r="E37" t="n">
         <v>50224.11</v>
       </c>
+      <c r="F37" t="n">
+        <v>50431.41</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1137,6 +1250,9 @@
       <c r="E38" t="n">
         <v>58361.8</v>
       </c>
+      <c r="F38" t="n">
+        <v>58297.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1155,6 +1271,9 @@
       </c>
       <c r="E39" t="n">
         <v>42387.34</v>
+      </c>
+      <c r="F39" t="n">
+        <v>42401.1</v>
       </c>
     </row>
     <row r="40">
@@ -1173,6 +1292,9 @@
       <c r="E40" t="n">
         <v>96876.12</v>
       </c>
+      <c r="F40" t="n">
+        <v>96948.22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1192,6 +1314,9 @@
       <c r="E41" t="n">
         <v>72882.78999999999</v>
       </c>
+      <c r="F41" t="n">
+        <v>84947.21000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1211,6 +1336,9 @@
       <c r="E42" t="n">
         <v>172237.48</v>
       </c>
+      <c r="F42" t="n">
+        <v>172128.42</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1230,6 +1358,9 @@
       <c r="E43" t="n">
         <v>101587.13</v>
       </c>
+      <c r="F43" t="n">
+        <v>109792.06</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1249,6 +1380,9 @@
       <c r="E44" t="n">
         <v>148483.45</v>
       </c>
+      <c r="F44" t="n">
+        <v>148251.15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1268,6 +1402,9 @@
       <c r="E45" t="n">
         <v>526647.15</v>
       </c>
+      <c r="F45" t="n">
+        <v>526202.4300000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1285,6 +1422,7 @@
         <v>914059.45</v>
       </c>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1304,6 +1442,9 @@
       <c r="E47" t="n">
         <v>1098877.42</v>
       </c>
+      <c r="F47" t="n">
+        <v>1138386.93</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1323,6 +1464,9 @@
       <c r="E48" t="n">
         <v>38638.69</v>
       </c>
+      <c r="F48" t="n">
+        <v>38619.29</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1340,6 +1484,7 @@
         <v>24722.09</v>
       </c>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1359,6 +1504,9 @@
       <c r="E50" t="n">
         <v>220217.43</v>
       </c>
+      <c r="F50" t="n">
+        <v>218421.26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1377,6 +1525,9 @@
       </c>
       <c r="E51" t="n">
         <v>10130001.57</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10047377.94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>178378.1</v>
       </c>
+      <c r="G2" t="n">
+        <v>178517.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>279554.88</v>
       </c>
+      <c r="G3" t="n">
+        <v>287539.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>61804.6</v>
       </c>
+      <c r="G4" t="n">
+        <v>61739.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>45343.61</v>
       </c>
+      <c r="G5" t="n">
+        <v>45325.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>116195.97</v>
       </c>
+      <c r="G6" t="n">
+        <v>116253.57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>44.29</v>
       </c>
+      <c r="G7" t="n">
+        <v>44.69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>213807</v>
       </c>
+      <c r="G8" t="n">
+        <v>213609.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>282799.11</v>
       </c>
+      <c r="G9" t="n">
+        <v>282671.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>6665.04</v>
       </c>
+      <c r="G10" t="n">
+        <v>9333.91</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>469567.18</v>
       </c>
+      <c r="G11" t="n">
+        <v>470477.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>17029.81</v>
       </c>
+      <c r="G12" t="n">
+        <v>17024.51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>10602.26</v>
       </c>
+      <c r="G13" t="n">
+        <v>10593.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>241010.86</v>
       </c>
+      <c r="G14" t="n">
+        <v>240973.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -767,6 +811,9 @@
       <c r="F15" t="n">
         <v>90733.19</v>
       </c>
+      <c r="G15" t="n">
+        <v>90683.67</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -789,6 +836,9 @@
       <c r="F16" t="n">
         <v>91539.33</v>
       </c>
+      <c r="G16" t="n">
+        <v>91503.92999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -810,6 +860,9 @@
       </c>
       <c r="F17" t="n">
         <v>690309.1800000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>689823.95</v>
       </c>
     </row>
     <row r="18">
@@ -831,6 +884,9 @@
       <c r="F18" t="n">
         <v>162808.69</v>
       </c>
+      <c r="G18" t="n">
+        <v>163141.72</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -851,6 +907,9 @@
       <c r="F19" t="n">
         <v>198456.52</v>
       </c>
+      <c r="G19" t="n">
+        <v>198412.93</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -871,6 +930,9 @@
       <c r="F20" t="n">
         <v>74476.23</v>
       </c>
+      <c r="G20" t="n">
+        <v>74489.53999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -891,6 +953,9 @@
       <c r="F21" t="n">
         <v>1347.57</v>
       </c>
+      <c r="G21" t="n">
+        <v>1352.12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -911,6 +976,9 @@
       <c r="F22" t="n">
         <v>3555.02</v>
       </c>
+      <c r="G22" t="n">
+        <v>3550.67</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -931,6 +999,9 @@
       <c r="F23" t="n">
         <v>377667.47</v>
       </c>
+      <c r="G23" t="n">
+        <v>377813.76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -951,6 +1022,9 @@
       <c r="F24" t="n">
         <v>163042.9</v>
       </c>
+      <c r="G24" t="n">
+        <v>149734.4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -971,6 +1045,9 @@
       <c r="F25" t="n">
         <v>230213.01</v>
       </c>
+      <c r="G25" t="n">
+        <v>227087.01</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -991,6 +1068,9 @@
       <c r="F26" t="n">
         <v>211655.21</v>
       </c>
+      <c r="G26" t="n">
+        <v>209406.01</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1011,6 +1091,9 @@
       <c r="F27" t="n">
         <v>313123.28</v>
       </c>
+      <c r="G27" t="n">
+        <v>313251.97</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1033,6 +1116,9 @@
       <c r="F28" t="n">
         <v>268480.2</v>
       </c>
+      <c r="G28" t="n">
+        <v>288461.74</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1055,6 +1141,9 @@
       <c r="F29" t="n">
         <v>270950.98</v>
       </c>
+      <c r="G29" t="n">
+        <v>270905.88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1077,6 +1166,9 @@
       <c r="F30" t="n">
         <v>2000377.14</v>
       </c>
+      <c r="G30" t="n">
+        <v>1999371.14</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1099,6 +1191,9 @@
       <c r="F31" t="n">
         <v>39762.86</v>
       </c>
+      <c r="G31" t="n">
+        <v>39770.59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1121,6 +1216,9 @@
       <c r="F32" t="n">
         <v>6541.84</v>
       </c>
+      <c r="G32" t="n">
+        <v>6546.52</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1143,6 +1241,9 @@
       <c r="F33" t="n">
         <v>172587.89</v>
       </c>
+      <c r="G33" t="n">
+        <v>167465.28</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1165,6 +1266,9 @@
       <c r="F34" t="n">
         <v>199428.85</v>
       </c>
+      <c r="G34" t="n">
+        <v>199082.96</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1187,6 +1291,9 @@
       <c r="F35" t="n">
         <v>76845.96000000001</v>
       </c>
+      <c r="G35" t="n">
+        <v>76782.53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1209,6 +1316,9 @@
       <c r="F36" t="n">
         <v>14266.11</v>
       </c>
+      <c r="G36" t="n">
+        <v>14261.59</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1231,6 +1341,9 @@
       <c r="F37" t="n">
         <v>50431.41</v>
       </c>
+      <c r="G37" t="n">
+        <v>50430.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1253,6 +1366,9 @@
       <c r="F38" t="n">
         <v>58297.58</v>
       </c>
+      <c r="G38" t="n">
+        <v>58363.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1274,6 +1390,9 @@
       </c>
       <c r="F39" t="n">
         <v>42401.1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>42420.56</v>
       </c>
     </row>
     <row r="40">
@@ -1295,6 +1414,9 @@
       <c r="F40" t="n">
         <v>96948.22</v>
       </c>
+      <c r="G40" t="n">
+        <v>96867</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1317,6 +1439,9 @@
       <c r="F41" t="n">
         <v>84947.21000000001</v>
       </c>
+      <c r="G41" t="n">
+        <v>76924.66</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1339,6 +1464,9 @@
       <c r="F42" t="n">
         <v>172128.42</v>
       </c>
+      <c r="G42" t="n">
+        <v>160794.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1361,6 +1489,9 @@
       <c r="F43" t="n">
         <v>109792.06</v>
       </c>
+      <c r="G43" t="n">
+        <v>111043.53</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1383,6 +1514,9 @@
       <c r="F44" t="n">
         <v>148251.15</v>
       </c>
+      <c r="G44" t="n">
+        <v>148505.25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1405,6 +1539,9 @@
       <c r="F45" t="n">
         <v>526202.4300000001</v>
       </c>
+      <c r="G45" t="n">
+        <v>522102.04</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1423,6 +1560,7 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1445,6 +1583,9 @@
       <c r="F47" t="n">
         <v>1138386.93</v>
       </c>
+      <c r="G47" t="n">
+        <v>1137706.34</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1467,6 +1608,9 @@
       <c r="F48" t="n">
         <v>38619.29</v>
       </c>
+      <c r="G48" t="n">
+        <v>38611.24</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1485,6 +1629,7 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1507,6 +1652,9 @@
       <c r="F50" t="n">
         <v>218421.26</v>
       </c>
+      <c r="G50" t="n">
+        <v>218060.27</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1528,6 +1676,9 @@
       </c>
       <c r="F51" t="n">
         <v>10047377.94</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10030772.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>178517.1</v>
       </c>
+      <c r="H2" t="n">
+        <v>190902.63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>287539.72</v>
       </c>
+      <c r="H3" t="n">
+        <v>276329.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>61739.8</v>
       </c>
+      <c r="H4" t="n">
+        <v>61888.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>45325.63</v>
       </c>
+      <c r="H5" t="n">
+        <v>45298.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>116253.57</v>
       </c>
+      <c r="H6" t="n">
+        <v>116331.73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>44.69</v>
       </c>
+      <c r="H7" t="n">
+        <v>44.67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>213609.85</v>
       </c>
+      <c r="H8" t="n">
+        <v>213617.22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>282671.95</v>
       </c>
+      <c r="H9" t="n">
+        <v>282851.84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>9333.91</v>
       </c>
+      <c r="H10" t="n">
+        <v>9319.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>470477.31</v>
       </c>
+      <c r="H11" t="n">
+        <v>469876.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>17024.51</v>
       </c>
+      <c r="H12" t="n">
+        <v>17020</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>10593.14</v>
       </c>
+      <c r="H13" t="n">
+        <v>10598.24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>240973.01</v>
       </c>
+      <c r="H14" t="n">
+        <v>240820.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>90683.67</v>
       </c>
+      <c r="H15" t="n">
+        <v>90664.78999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>91503.92999999999</v>
       </c>
+      <c r="H16" t="n">
+        <v>91419.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -863,6 +913,9 @@
       </c>
       <c r="G17" t="n">
         <v>689823.95</v>
+      </c>
+      <c r="H17" t="n">
+        <v>687671.39</v>
       </c>
     </row>
     <row r="18">
@@ -887,6 +940,9 @@
       <c r="G18" t="n">
         <v>163141.72</v>
       </c>
+      <c r="H18" t="n">
+        <v>162882.13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -910,6 +966,9 @@
       <c r="G19" t="n">
         <v>198412.93</v>
       </c>
+      <c r="H19" t="n">
+        <v>198176.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -933,6 +992,9 @@
       <c r="G20" t="n">
         <v>74489.53999999999</v>
       </c>
+      <c r="H20" t="n">
+        <v>74479.28999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -956,6 +1018,9 @@
       <c r="G21" t="n">
         <v>1352.12</v>
       </c>
+      <c r="H21" t="n">
+        <v>1351.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -979,6 +1044,9 @@
       <c r="G22" t="n">
         <v>3550.67</v>
       </c>
+      <c r="H22" t="n">
+        <v>3551.37</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1002,6 +1070,9 @@
       <c r="G23" t="n">
         <v>377813.76</v>
       </c>
+      <c r="H23" t="n">
+        <v>377886.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1025,6 +1096,9 @@
       <c r="G24" t="n">
         <v>149734.4</v>
       </c>
+      <c r="H24" t="n">
+        <v>149888.11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1048,6 +1122,9 @@
       <c r="G25" t="n">
         <v>227087.01</v>
       </c>
+      <c r="H25" t="n">
+        <v>230007.03</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1071,6 +1148,9 @@
       <c r="G26" t="n">
         <v>209406.01</v>
       </c>
+      <c r="H26" t="n">
+        <v>209327</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1094,6 +1174,9 @@
       <c r="G27" t="n">
         <v>313251.97</v>
       </c>
+      <c r="H27" t="n">
+        <v>313639.98</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1119,6 +1202,9 @@
       <c r="G28" t="n">
         <v>288461.74</v>
       </c>
+      <c r="H28" t="n">
+        <v>338362.09</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1144,6 +1230,9 @@
       <c r="G29" t="n">
         <v>270905.88</v>
       </c>
+      <c r="H29" t="n">
+        <v>174822.89</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1169,6 +1258,9 @@
       <c r="G30" t="n">
         <v>1999371.14</v>
       </c>
+      <c r="H30" t="n">
+        <v>2000484.03</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1194,6 +1286,9 @@
       <c r="G31" t="n">
         <v>39770.59</v>
       </c>
+      <c r="H31" t="n">
+        <v>39755.27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1219,6 +1314,9 @@
       <c r="G32" t="n">
         <v>6546.52</v>
       </c>
+      <c r="H32" t="n">
+        <v>6542.76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1244,6 +1342,9 @@
       <c r="G33" t="n">
         <v>167465.28</v>
       </c>
+      <c r="H33" t="n">
+        <v>167389.87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1269,6 +1370,9 @@
       <c r="G34" t="n">
         <v>199082.96</v>
       </c>
+      <c r="H34" t="n">
+        <v>204120.99</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1294,6 +1398,9 @@
       <c r="G35" t="n">
         <v>76782.53</v>
       </c>
+      <c r="H35" t="n">
+        <v>91274.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1319,6 +1426,9 @@
       <c r="G36" t="n">
         <v>14261.59</v>
       </c>
+      <c r="H36" t="n">
+        <v>14263.76</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1344,6 +1454,9 @@
       <c r="G37" t="n">
         <v>50430.25</v>
       </c>
+      <c r="H37" t="n">
+        <v>50410.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1369,6 +1482,9 @@
       <c r="G38" t="n">
         <v>58363.24</v>
       </c>
+      <c r="H38" t="n">
+        <v>58348.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1393,6 +1509,9 @@
       </c>
       <c r="G39" t="n">
         <v>42420.56</v>
+      </c>
+      <c r="H39" t="n">
+        <v>42383.75</v>
       </c>
     </row>
     <row r="40">
@@ -1417,6 +1536,9 @@
       <c r="G40" t="n">
         <v>96867</v>
       </c>
+      <c r="H40" t="n">
+        <v>96771.57000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1442,6 +1564,9 @@
       <c r="G41" t="n">
         <v>76924.66</v>
       </c>
+      <c r="H41" t="n">
+        <v>85926.32000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1467,6 +1592,9 @@
       <c r="G42" t="n">
         <v>160794.25</v>
       </c>
+      <c r="H42" t="n">
+        <v>160812.17</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1492,6 +1620,9 @@
       <c r="G43" t="n">
         <v>111043.53</v>
       </c>
+      <c r="H43" t="n">
+        <v>111375.39</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1517,6 +1648,9 @@
       <c r="G44" t="n">
         <v>148505.25</v>
       </c>
+      <c r="H44" t="n">
+        <v>148687.85</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1541,6 +1675,9 @@
       </c>
       <c r="G45" t="n">
         <v>522102.04</v>
+      </c>
+      <c r="H45" t="n">
+        <v>527478.3</v>
       </c>
     </row>
     <row r="46">
@@ -1561,6 +1698,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1586,6 +1724,9 @@
       <c r="G47" t="n">
         <v>1137706.34</v>
       </c>
+      <c r="H47" t="n">
+        <v>1204415.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1610,6 +1751,9 @@
       </c>
       <c r="G48" t="n">
         <v>38611.24</v>
+      </c>
+      <c r="H48" t="n">
+        <v>38613.5</v>
       </c>
     </row>
     <row r="49">
@@ -1630,6 +1774,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1655,6 +1800,9 @@
       <c r="G50" t="n">
         <v>218060.27</v>
       </c>
+      <c r="H50" t="n">
+        <v>219306.1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1679,6 +1827,9 @@
       </c>
       <c r="G51" t="n">
         <v>10030772.46</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10088080.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>190902.63</v>
       </c>
+      <c r="I2" t="n">
+        <v>164914.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>276329.41</v>
       </c>
+      <c r="I3" t="n">
+        <v>276576.67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>61888.6</v>
       </c>
+      <c r="I4" t="n">
+        <v>61896.32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>45298.06</v>
       </c>
+      <c r="I5" t="n">
+        <v>45384.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>116331.73</v>
       </c>
+      <c r="I6" t="n">
+        <v>116399.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>44.67</v>
       </c>
+      <c r="I7" t="n">
+        <v>43.83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>213617.22</v>
       </c>
+      <c r="I8" t="n">
+        <v>213789.29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>282851.84</v>
       </c>
+      <c r="I9" t="n">
+        <v>282738.46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>9319.1</v>
       </c>
+      <c r="I10" t="n">
+        <v>9328.559999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>469876.11</v>
       </c>
+      <c r="I11" t="n">
+        <v>470499.67</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>17020</v>
       </c>
+      <c r="I12" t="n">
+        <v>17022.71</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>10598.24</v>
       </c>
+      <c r="I13" t="n">
+        <v>10611.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>240820.35</v>
       </c>
+      <c r="I14" t="n">
+        <v>241130.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -861,6 +905,9 @@
       <c r="H15" t="n">
         <v>90664.78999999999</v>
       </c>
+      <c r="I15" t="n">
+        <v>90741.11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -889,6 +936,9 @@
       <c r="H16" t="n">
         <v>91419.25</v>
       </c>
+      <c r="I16" t="n">
+        <v>91563.52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -916,6 +966,9 @@
       </c>
       <c r="H17" t="n">
         <v>687671.39</v>
+      </c>
+      <c r="I17" t="n">
+        <v>680659.71</v>
       </c>
     </row>
     <row r="18">
@@ -943,6 +996,9 @@
       <c r="H18" t="n">
         <v>162882.13</v>
       </c>
+      <c r="I18" t="n">
+        <v>162783.46</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -969,6 +1025,9 @@
       <c r="H19" t="n">
         <v>198176.06</v>
       </c>
+      <c r="I19" t="n">
+        <v>198312.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -995,6 +1054,9 @@
       <c r="H20" t="n">
         <v>74479.28999999999</v>
       </c>
+      <c r="I20" t="n">
+        <v>74406.56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1021,6 +1083,9 @@
       <c r="H21" t="n">
         <v>1351.1</v>
       </c>
+      <c r="I21" t="n">
+        <v>1349.67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1047,6 +1112,9 @@
       <c r="H22" t="n">
         <v>3551.37</v>
       </c>
+      <c r="I22" t="n">
+        <v>3554.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1073,6 +1141,9 @@
       <c r="H23" t="n">
         <v>377886.23</v>
       </c>
+      <c r="I23" t="n">
+        <v>377489.44</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1099,6 +1170,9 @@
       <c r="H24" t="n">
         <v>149888.11</v>
       </c>
+      <c r="I24" t="n">
+        <v>149555.88</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1125,6 +1199,9 @@
       <c r="H25" t="n">
         <v>230007.03</v>
       </c>
+      <c r="I25" t="n">
+        <v>220835.75</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1151,6 +1228,9 @@
       <c r="H26" t="n">
         <v>209327</v>
       </c>
+      <c r="I26" t="n">
+        <v>209289.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1177,6 +1257,9 @@
       <c r="H27" t="n">
         <v>313639.98</v>
       </c>
+      <c r="I27" t="n">
+        <v>314990.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1205,6 +1288,9 @@
       <c r="H28" t="n">
         <v>338362.09</v>
       </c>
+      <c r="I28" t="n">
+        <v>358740.75</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1233,6 +1319,9 @@
       <c r="H29" t="n">
         <v>174822.89</v>
       </c>
+      <c r="I29" t="n">
+        <v>174851.76</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1261,6 +1350,9 @@
       <c r="H30" t="n">
         <v>2000484.03</v>
       </c>
+      <c r="I30" t="n">
+        <v>1999814.9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1289,6 +1381,9 @@
       <c r="H31" t="n">
         <v>39755.27</v>
       </c>
+      <c r="I31" t="n">
+        <v>45737.02</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1317,6 +1412,9 @@
       <c r="H32" t="n">
         <v>6542.76</v>
       </c>
+      <c r="I32" t="n">
+        <v>6553.34</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1345,6 +1443,9 @@
       <c r="H33" t="n">
         <v>167389.87</v>
       </c>
+      <c r="I33" t="n">
+        <v>152417.66</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1373,6 +1474,9 @@
       <c r="H34" t="n">
         <v>204120.99</v>
       </c>
+      <c r="I34" t="n">
+        <v>204413.92</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1401,6 +1505,9 @@
       <c r="H35" t="n">
         <v>91274.25</v>
       </c>
+      <c r="I35" t="n">
+        <v>91258.61</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1429,6 +1536,9 @@
       <c r="H36" t="n">
         <v>14263.76</v>
       </c>
+      <c r="I36" t="n">
+        <v>14261.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1457,6 +1567,9 @@
       <c r="H37" t="n">
         <v>50410.3</v>
       </c>
+      <c r="I37" t="n">
+        <v>50409.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1485,6 +1598,9 @@
       <c r="H38" t="n">
         <v>58348.16</v>
       </c>
+      <c r="I38" t="n">
+        <v>58330</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1512,6 +1628,9 @@
       </c>
       <c r="H39" t="n">
         <v>42383.75</v>
+      </c>
+      <c r="I39" t="n">
+        <v>42403.05</v>
       </c>
     </row>
     <row r="40">
@@ -1539,6 +1658,9 @@
       <c r="H40" t="n">
         <v>96771.57000000001</v>
       </c>
+      <c r="I40" t="n">
+        <v>96766.89</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1567,6 +1689,9 @@
       <c r="H41" t="n">
         <v>85926.32000000001</v>
       </c>
+      <c r="I41" t="n">
+        <v>80915.59</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1595,6 +1720,9 @@
       <c r="H42" t="n">
         <v>160812.17</v>
       </c>
+      <c r="I42" t="n">
+        <v>160808.19</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1623,6 +1751,9 @@
       <c r="H43" t="n">
         <v>111375.39</v>
       </c>
+      <c r="I43" t="n">
+        <v>111358.07</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1651,6 +1782,9 @@
       <c r="H44" t="n">
         <v>148687.85</v>
       </c>
+      <c r="I44" t="n">
+        <v>148222.86</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1678,6 +1812,9 @@
       </c>
       <c r="H45" t="n">
         <v>527478.3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>521544.61</v>
       </c>
     </row>
     <row r="46">
@@ -1699,6 +1836,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1727,6 +1865,9 @@
       <c r="H47" t="n">
         <v>1204415.8</v>
       </c>
+      <c r="I47" t="n">
+        <v>1270311.97</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1754,6 +1895,9 @@
       </c>
       <c r="H48" t="n">
         <v>38613.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>38652.85</v>
       </c>
     </row>
     <row r="49">
@@ -1775,6 +1919,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1803,6 +1948,9 @@
       <c r="H50" t="n">
         <v>219306.1</v>
       </c>
+      <c r="I50" t="n">
+        <v>219861.73</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1830,6 +1978,9 @@
       </c>
       <c r="H51" t="n">
         <v>10088080.71</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10113639.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>164914.22</v>
       </c>
+      <c r="J2" t="n">
+        <v>164747.55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>276576.67</v>
       </c>
+      <c r="J3" t="n">
+        <v>276214.82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>61896.32</v>
       </c>
+      <c r="J4" t="n">
+        <v>61850.58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>45384.11</v>
       </c>
+      <c r="J5" t="n">
+        <v>45394.59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>116399.02</v>
       </c>
+      <c r="J6" t="n">
+        <v>116381.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>43.83</v>
       </c>
+      <c r="J7" t="n">
+        <v>43.43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>213789.29</v>
       </c>
+      <c r="J8" t="n">
+        <v>213696.49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>282738.46</v>
       </c>
+      <c r="J9" t="n">
+        <v>282780</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>9328.559999999999</v>
       </c>
+      <c r="J10" t="n">
+        <v>9329.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>470499.67</v>
       </c>
+      <c r="J11" t="n">
+        <v>469747.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>17022.71</v>
       </c>
+      <c r="J12" t="n">
+        <v>16987.79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>10611.14</v>
       </c>
+      <c r="J13" t="n">
+        <v>10594.96</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>241130.86</v>
       </c>
+      <c r="J14" t="n">
+        <v>240713.34</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -908,6 +952,9 @@
       <c r="I15" t="n">
         <v>90741.11</v>
       </c>
+      <c r="J15" t="n">
+        <v>90664.69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -939,6 +986,9 @@
       <c r="I16" t="n">
         <v>91563.52</v>
       </c>
+      <c r="J16" t="n">
+        <v>91437.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -969,6 +1019,9 @@
       </c>
       <c r="I17" t="n">
         <v>680659.71</v>
+      </c>
+      <c r="J17" t="n">
+        <v>674166.3</v>
       </c>
     </row>
     <row r="18">
@@ -999,6 +1052,9 @@
       <c r="I18" t="n">
         <v>162783.46</v>
       </c>
+      <c r="J18" t="n">
+        <v>162695.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1028,6 +1084,9 @@
       <c r="I19" t="n">
         <v>198312.5</v>
       </c>
+      <c r="J19" t="n">
+        <v>198273.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1057,6 +1116,9 @@
       <c r="I20" t="n">
         <v>74406.56</v>
       </c>
+      <c r="J20" t="n">
+        <v>74459.42999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1086,6 +1148,9 @@
       <c r="I21" t="n">
         <v>1349.67</v>
       </c>
+      <c r="J21" t="n">
+        <v>1353.36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1115,6 +1180,9 @@
       <c r="I22" t="n">
         <v>3554.19</v>
       </c>
+      <c r="J22" t="n">
+        <v>3550.06</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1144,6 +1212,9 @@
       <c r="I23" t="n">
         <v>377489.44</v>
       </c>
+      <c r="J23" t="n">
+        <v>377573.84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1173,6 +1244,9 @@
       <c r="I24" t="n">
         <v>149555.88</v>
       </c>
+      <c r="J24" t="n">
+        <v>149956.69</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1202,6 +1276,9 @@
       <c r="I25" t="n">
         <v>220835.75</v>
       </c>
+      <c r="J25" t="n">
+        <v>231658.93</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1231,6 +1308,9 @@
       <c r="I26" t="n">
         <v>209289.45</v>
       </c>
+      <c r="J26" t="n">
+        <v>214950.79</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1260,6 +1340,9 @@
       <c r="I27" t="n">
         <v>314990.59</v>
       </c>
+      <c r="J27" t="n">
+        <v>306694.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1291,6 +1374,9 @@
       <c r="I28" t="n">
         <v>358740.75</v>
       </c>
+      <c r="J28" t="n">
+        <v>358822.05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1322,6 +1408,9 @@
       <c r="I29" t="n">
         <v>174851.76</v>
       </c>
+      <c r="J29" t="n">
+        <v>55165.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1353,6 +1442,9 @@
       <c r="I30" t="n">
         <v>1999814.9</v>
       </c>
+      <c r="J30" t="n">
+        <v>2001009.31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1384,6 +1476,9 @@
       <c r="I31" t="n">
         <v>45737.02</v>
       </c>
+      <c r="J31" t="n">
+        <v>45724.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1415,6 +1510,9 @@
       <c r="I32" t="n">
         <v>6553.34</v>
       </c>
+      <c r="J32" t="n">
+        <v>6543.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1446,6 +1544,9 @@
       <c r="I33" t="n">
         <v>152417.66</v>
       </c>
+      <c r="J33" t="n">
+        <v>137524.84</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1477,6 +1578,9 @@
       <c r="I34" t="n">
         <v>204413.92</v>
       </c>
+      <c r="J34" t="n">
+        <v>204380.52</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1508,6 +1612,9 @@
       <c r="I35" t="n">
         <v>91258.61</v>
       </c>
+      <c r="J35" t="n">
+        <v>91153.81</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1539,6 +1646,9 @@
       <c r="I36" t="n">
         <v>14261.1</v>
       </c>
+      <c r="J36" t="n">
+        <v>14257.55</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1570,6 +1680,9 @@
       <c r="I37" t="n">
         <v>50409.6</v>
       </c>
+      <c r="J37" t="n">
+        <v>49001.96</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1601,6 +1714,9 @@
       <c r="I38" t="n">
         <v>58330</v>
       </c>
+      <c r="J38" t="n">
+        <v>58321.73</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1631,6 +1747,9 @@
       </c>
       <c r="I39" t="n">
         <v>42403.05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>42379.61</v>
       </c>
     </row>
     <row r="40">
@@ -1661,6 +1780,9 @@
       <c r="I40" t="n">
         <v>96766.89</v>
       </c>
+      <c r="J40" t="n">
+        <v>96902.25999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1692,6 +1814,9 @@
       <c r="I41" t="n">
         <v>80915.59</v>
       </c>
+      <c r="J41" t="n">
+        <v>77946.39999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1723,6 +1848,9 @@
       <c r="I42" t="n">
         <v>160808.19</v>
       </c>
+      <c r="J42" t="n">
+        <v>160748.56</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1754,6 +1882,9 @@
       <c r="I43" t="n">
         <v>111358.07</v>
       </c>
+      <c r="J43" t="n">
+        <v>111272.83</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1785,6 +1916,9 @@
       <c r="I44" t="n">
         <v>148222.86</v>
       </c>
+      <c r="J44" t="n">
+        <v>148443.41</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1815,6 +1949,9 @@
       </c>
       <c r="I45" t="n">
         <v>521544.61</v>
+      </c>
+      <c r="J45" t="n">
+        <v>526655.25</v>
       </c>
     </row>
     <row r="46">
@@ -1837,6 +1974,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1868,6 +2006,9 @@
       <c r="I47" t="n">
         <v>1270311.97</v>
       </c>
+      <c r="J47" t="n">
+        <v>1309163.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1898,6 +2039,9 @@
       </c>
       <c r="I48" t="n">
         <v>38652.85</v>
+      </c>
+      <c r="J48" t="n">
+        <v>38601.8</v>
       </c>
     </row>
     <row r="49">
@@ -1920,6 +2064,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1951,6 +2096,9 @@
       <c r="I50" t="n">
         <v>219861.73</v>
       </c>
+      <c r="J50" t="n">
+        <v>217824.68</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1981,6 +2129,9 @@
       </c>
       <c r="I51" t="n">
         <v>10113639.43</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10019935.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>164747.55</v>
       </c>
+      <c r="K2" t="n">
+        <v>158072.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>276214.82</v>
       </c>
+      <c r="K3" t="n">
+        <v>284819.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>61850.58</v>
       </c>
+      <c r="K4" t="n">
+        <v>61826.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>45394.59</v>
       </c>
+      <c r="K5" t="n">
+        <v>45381</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>116381.23</v>
       </c>
+      <c r="K6" t="n">
+        <v>141937.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>43.43</v>
       </c>
+      <c r="K7" t="n">
+        <v>41.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>213696.49</v>
       </c>
+      <c r="K8" t="n">
+        <v>213667.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>282780</v>
       </c>
+      <c r="K9" t="n">
+        <v>282660.43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>9329.16</v>
       </c>
+      <c r="K10" t="n">
+        <v>9314.309999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>469747.91</v>
       </c>
+      <c r="K11" t="n">
+        <v>469139.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>16987.79</v>
       </c>
+      <c r="K12" t="n">
+        <v>2012.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>10594.96</v>
       </c>
+      <c r="K13" t="n">
+        <v>10600.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>240713.34</v>
       </c>
+      <c r="K14" t="n">
+        <v>241021.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>90664.69</v>
       </c>
+      <c r="K15" t="n">
+        <v>90690.85000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>91437.34</v>
       </c>
+      <c r="K16" t="n">
+        <v>91601.99000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1022,6 +1072,9 @@
       </c>
       <c r="J17" t="n">
         <v>674166.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>668321.0699999999</v>
       </c>
     </row>
     <row r="18">
@@ -1055,6 +1108,9 @@
       <c r="J18" t="n">
         <v>162695.02</v>
       </c>
+      <c r="K18" t="n">
+        <v>162981.87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1087,6 +1143,9 @@
       <c r="J19" t="n">
         <v>198273.13</v>
       </c>
+      <c r="K19" t="n">
+        <v>198326.93</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1119,6 +1178,9 @@
       <c r="J20" t="n">
         <v>74459.42999999999</v>
       </c>
+      <c r="K20" t="n">
+        <v>74394.39999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1151,6 +1213,9 @@
       <c r="J21" t="n">
         <v>1353.36</v>
       </c>
+      <c r="K21" t="n">
+        <v>1350.77</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1183,6 +1248,9 @@
       <c r="J22" t="n">
         <v>3550.06</v>
       </c>
+      <c r="K22" t="n">
+        <v>3554.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1215,6 +1283,9 @@
       <c r="J23" t="n">
         <v>377573.84</v>
       </c>
+      <c r="K23" t="n">
+        <v>377380.97</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1247,6 +1318,9 @@
       <c r="J24" t="n">
         <v>149956.69</v>
       </c>
+      <c r="K24" t="n">
+        <v>149919.53</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1279,6 +1353,9 @@
       <c r="J25" t="n">
         <v>231658.93</v>
       </c>
+      <c r="K25" t="n">
+        <v>235376.28</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1311,6 +1388,9 @@
       <c r="J26" t="n">
         <v>214950.79</v>
       </c>
+      <c r="K26" t="n">
+        <v>225653.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1343,6 +1423,9 @@
       <c r="J27" t="n">
         <v>306694.7</v>
       </c>
+      <c r="K27" t="n">
+        <v>304782.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1377,6 +1460,9 @@
       <c r="J28" t="n">
         <v>358822.05</v>
       </c>
+      <c r="K28" t="n">
+        <v>358595.31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1411,6 +1497,9 @@
       <c r="J29" t="n">
         <v>55165.9</v>
       </c>
+      <c r="K29" t="n">
+        <v>30164.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1445,6 +1534,9 @@
       <c r="J30" t="n">
         <v>2001009.31</v>
       </c>
+      <c r="K30" t="n">
+        <v>2199324.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1479,6 +1571,9 @@
       <c r="J31" t="n">
         <v>45724.6</v>
       </c>
+      <c r="K31" t="n">
+        <v>45754.44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1513,6 +1608,9 @@
       <c r="J32" t="n">
         <v>6543.55</v>
       </c>
+      <c r="K32" t="n">
+        <v>6545.54</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1547,6 +1645,9 @@
       <c r="J33" t="n">
         <v>137524.84</v>
       </c>
+      <c r="K33" t="n">
+        <v>133508.82</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1581,6 +1682,9 @@
       <c r="J34" t="n">
         <v>204380.52</v>
       </c>
+      <c r="K34" t="n">
+        <v>204309.66</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1615,6 +1719,9 @@
       <c r="J35" t="n">
         <v>91153.81</v>
       </c>
+      <c r="K35" t="n">
+        <v>91206.39999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1649,6 +1756,9 @@
       <c r="J36" t="n">
         <v>14257.55</v>
       </c>
+      <c r="K36" t="n">
+        <v>14257.64</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1683,6 +1793,9 @@
       <c r="J37" t="n">
         <v>49001.96</v>
       </c>
+      <c r="K37" t="n">
+        <v>47476.86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1717,6 +1830,9 @@
       <c r="J38" t="n">
         <v>58321.73</v>
       </c>
+      <c r="K38" t="n">
+        <v>58355.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1750,6 +1866,9 @@
       </c>
       <c r="J39" t="n">
         <v>42379.61</v>
+      </c>
+      <c r="K39" t="n">
+        <v>42376.41</v>
       </c>
     </row>
     <row r="40">
@@ -1783,6 +1902,9 @@
       <c r="J40" t="n">
         <v>96902.25999999999</v>
       </c>
+      <c r="K40" t="n">
+        <v>96873.39999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1817,6 +1939,9 @@
       <c r="J41" t="n">
         <v>77946.39999999999</v>
       </c>
+      <c r="K41" t="n">
+        <v>70862.88</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1851,6 +1976,9 @@
       <c r="J42" t="n">
         <v>160748.56</v>
       </c>
+      <c r="K42" t="n">
+        <v>160759.53</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1885,6 +2013,9 @@
       <c r="J43" t="n">
         <v>111272.83</v>
       </c>
+      <c r="K43" t="n">
+        <v>111342.51</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1919,6 +2050,9 @@
       <c r="J44" t="n">
         <v>148443.41</v>
       </c>
+      <c r="K44" t="n">
+        <v>148250.74</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1952,6 +2086,9 @@
       </c>
       <c r="J45" t="n">
         <v>526655.25</v>
+      </c>
+      <c r="K45" t="n">
+        <v>526262.5699999999</v>
       </c>
     </row>
     <row r="46">
@@ -1975,6 +2112,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2009,6 +2147,9 @@
       <c r="J47" t="n">
         <v>1309163.05</v>
       </c>
+      <c r="K47" t="n">
+        <v>1309074.19</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2042,6 +2183,9 @@
       </c>
       <c r="J48" t="n">
         <v>38601.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>38657.8</v>
       </c>
     </row>
     <row r="49">
@@ -2065,6 +2209,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2099,6 +2244,9 @@
       <c r="J50" t="n">
         <v>217824.68</v>
       </c>
+      <c r="K50" t="n">
+        <v>221712.76</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2132,6 +2280,9 @@
       </c>
       <c r="J51" t="n">
         <v>10019935.12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10198787.1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>158072.16</v>
       </c>
+      <c r="L2" t="n">
+        <v>135337.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>284819.95</v>
       </c>
+      <c r="L3" t="n">
+        <v>274438.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>61826.21</v>
       </c>
+      <c r="L4" t="n">
+        <v>61830.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>45381</v>
       </c>
+      <c r="L5" t="n">
+        <v>45308.29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>141937.18</v>
       </c>
+      <c r="L6" t="n">
+        <v>141831.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>41.02</v>
       </c>
+      <c r="L7" t="n">
+        <v>41.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>213667.54</v>
       </c>
+      <c r="L8" t="n">
+        <v>213851.57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>282660.43</v>
       </c>
+      <c r="L9" t="n">
+        <v>282774.83</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>9314.309999999999</v>
       </c>
+      <c r="L10" t="n">
+        <v>9344.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>469139.28</v>
       </c>
+      <c r="L11" t="n">
+        <v>468930.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>2012.23</v>
       </c>
+      <c r="L12" t="n">
+        <v>2010.81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>10600.09</v>
       </c>
+      <c r="L13" t="n">
+        <v>10602.86</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>241021.12</v>
       </c>
+      <c r="L14" t="n">
+        <v>241008.77</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1002,6 +1046,9 @@
       <c r="K15" t="n">
         <v>90690.85000000001</v>
       </c>
+      <c r="L15" t="n">
+        <v>86651.85000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1039,6 +1086,9 @@
       <c r="K16" t="n">
         <v>91601.99000000001</v>
       </c>
+      <c r="L16" t="n">
+        <v>91415.11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1075,6 +1125,9 @@
       </c>
       <c r="K17" t="n">
         <v>668321.0699999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>665926.97</v>
       </c>
     </row>
     <row r="18">
@@ -1111,6 +1164,9 @@
       <c r="K18" t="n">
         <v>162981.87</v>
       </c>
+      <c r="L18" t="n">
+        <v>162889.49</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1146,6 +1202,9 @@
       <c r="K19" t="n">
         <v>198326.93</v>
       </c>
+      <c r="L19" t="n">
+        <v>198461.35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1181,6 +1240,9 @@
       <c r="K20" t="n">
         <v>74394.39999999999</v>
       </c>
+      <c r="L20" t="n">
+        <v>74404.53</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1216,6 +1278,9 @@
       <c r="K21" t="n">
         <v>1350.77</v>
       </c>
+      <c r="L21" t="n">
+        <v>1353.69</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1251,6 +1316,9 @@
       <c r="K22" t="n">
         <v>3554.6</v>
       </c>
+      <c r="L22" t="n">
+        <v>3546.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1286,6 +1354,9 @@
       <c r="K23" t="n">
         <v>377380.97</v>
       </c>
+      <c r="L23" t="n">
+        <v>377600.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1321,6 +1392,9 @@
       <c r="K24" t="n">
         <v>149919.53</v>
       </c>
+      <c r="L24" t="n">
+        <v>150114.23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1356,6 +1430,9 @@
       <c r="K25" t="n">
         <v>235376.28</v>
       </c>
+      <c r="L25" t="n">
+        <v>231477.67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1391,6 +1468,9 @@
       <c r="K26" t="n">
         <v>225653.2</v>
       </c>
+      <c r="L26" t="n">
+        <v>219881.48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1426,6 +1506,9 @@
       <c r="K27" t="n">
         <v>304782.96</v>
       </c>
+      <c r="L27" t="n">
+        <v>282284.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1463,6 +1546,9 @@
       <c r="K28" t="n">
         <v>358595.31</v>
       </c>
+      <c r="L28" t="n">
+        <v>338625.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1500,6 +1586,9 @@
       <c r="K29" t="n">
         <v>30164.9</v>
       </c>
+      <c r="L29" t="n">
+        <v>23663.77</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1537,6 +1626,9 @@
       <c r="K30" t="n">
         <v>2199324.4</v>
       </c>
+      <c r="L30" t="n">
+        <v>2200855.55</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1574,6 +1666,9 @@
       <c r="K31" t="n">
         <v>45754.44</v>
       </c>
+      <c r="L31" t="n">
+        <v>45761.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1611,6 +1706,9 @@
       <c r="K32" t="n">
         <v>6545.54</v>
       </c>
+      <c r="L32" t="n">
+        <v>6536.51</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1648,6 +1746,9 @@
       <c r="K33" t="n">
         <v>133508.82</v>
       </c>
+      <c r="L33" t="n">
+        <v>133447.97</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1685,6 +1786,9 @@
       <c r="K34" t="n">
         <v>204309.66</v>
       </c>
+      <c r="L34" t="n">
+        <v>194427.05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1722,6 +1826,9 @@
       <c r="K35" t="n">
         <v>91206.39999999999</v>
       </c>
+      <c r="L35" t="n">
+        <v>90611.62</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1759,6 +1866,9 @@
       <c r="K36" t="n">
         <v>14257.64</v>
       </c>
+      <c r="L36" t="n">
+        <v>8859.559999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1796,6 +1906,9 @@
       <c r="K37" t="n">
         <v>47476.86</v>
       </c>
+      <c r="L37" t="n">
+        <v>46086.63</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1833,6 +1946,9 @@
       <c r="K38" t="n">
         <v>58355.16</v>
       </c>
+      <c r="L38" t="n">
+        <v>58341.68</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1869,6 +1985,9 @@
       </c>
       <c r="K39" t="n">
         <v>42376.41</v>
+      </c>
+      <c r="L39" t="n">
+        <v>42432.19</v>
       </c>
     </row>
     <row r="40">
@@ -1905,6 +2024,9 @@
       <c r="K40" t="n">
         <v>96873.39999999999</v>
       </c>
+      <c r="L40" t="n">
+        <v>96883.75</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1942,6 +2064,9 @@
       <c r="K41" t="n">
         <v>70862.88</v>
       </c>
+      <c r="L41" t="n">
+        <v>72369.96000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1979,6 +2104,9 @@
       <c r="K42" t="n">
         <v>160759.53</v>
       </c>
+      <c r="L42" t="n">
+        <v>160716.58</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2016,6 +2144,9 @@
       <c r="K43" t="n">
         <v>111342.51</v>
       </c>
+      <c r="L43" t="n">
+        <v>111347.45</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2053,6 +2184,9 @@
       <c r="K44" t="n">
         <v>148250.74</v>
       </c>
+      <c r="L44" t="n">
+        <v>141741.46</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2089,6 +2223,9 @@
       </c>
       <c r="K45" t="n">
         <v>526262.5699999999</v>
+      </c>
+      <c r="L45" t="n">
+        <v>526213.1899999999</v>
       </c>
     </row>
     <row r="46">
@@ -2113,6 +2250,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2150,6 +2288,9 @@
       <c r="K47" t="n">
         <v>1309074.19</v>
       </c>
+      <c r="L47" t="n">
+        <v>1308712.82</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2186,6 +2327,9 @@
       </c>
       <c r="K48" t="n">
         <v>38657.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>38677.64</v>
       </c>
     </row>
     <row r="49">
@@ -2210,6 +2354,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2247,6 +2392,9 @@
       <c r="K50" t="n">
         <v>221712.76</v>
       </c>
+      <c r="L50" t="n">
+        <v>219122.43</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2283,6 +2431,9 @@
       </c>
       <c r="K51" t="n">
         <v>10198787.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10079631.58</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>135337.85</v>
       </c>
+      <c r="M2" t="n">
+        <v>135195.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>274438.09</v>
       </c>
+      <c r="M3" t="n">
+        <v>304579.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>61830.77</v>
       </c>
+      <c r="M4" t="n">
+        <v>61820.49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>45308.29</v>
       </c>
+      <c r="M5" t="n">
+        <v>45355.57</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>141831.7</v>
       </c>
+      <c r="M6" t="n">
+        <v>141934.82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>41.28</v>
       </c>
+      <c r="M7" t="n">
+        <v>41.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>213851.57</v>
       </c>
+      <c r="M8" t="n">
+        <v>213898.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>282774.83</v>
       </c>
+      <c r="M9" t="n">
+        <v>282675.69</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>9344.6</v>
       </c>
+      <c r="M10" t="n">
+        <v>9332.559999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>468930.47</v>
       </c>
+      <c r="M11" t="n">
+        <v>469278.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>2010.81</v>
       </c>
+      <c r="M12" t="n">
+        <v>2012.89</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>10602.86</v>
       </c>
+      <c r="M13" t="n">
+        <v>10599.71</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>241008.77</v>
       </c>
+      <c r="M14" t="n">
+        <v>240838.07</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1049,6 +1093,9 @@
       <c r="L15" t="n">
         <v>86651.85000000001</v>
       </c>
+      <c r="M15" t="n">
+        <v>86660.61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1089,6 +1136,9 @@
       <c r="L16" t="n">
         <v>91415.11</v>
       </c>
+      <c r="M16" t="n">
+        <v>91407.19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1128,6 +1178,9 @@
       </c>
       <c r="L17" t="n">
         <v>665926.97</v>
+      </c>
+      <c r="M17" t="n">
+        <v>658311.11</v>
       </c>
     </row>
     <row r="18">
@@ -1167,6 +1220,9 @@
       <c r="L18" t="n">
         <v>162889.49</v>
       </c>
+      <c r="M18" t="n">
+        <v>162937.44</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1205,6 +1261,9 @@
       <c r="L19" t="n">
         <v>198461.35</v>
       </c>
+      <c r="M19" t="n">
+        <v>198508.61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1243,6 +1302,9 @@
       <c r="L20" t="n">
         <v>74404.53</v>
       </c>
+      <c r="M20" t="n">
+        <v>74419.67999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1281,6 +1343,9 @@
       <c r="L21" t="n">
         <v>1353.69</v>
       </c>
+      <c r="M21" t="n">
+        <v>1348.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1319,6 +1384,9 @@
       <c r="L22" t="n">
         <v>3546.35</v>
       </c>
+      <c r="M22" t="n">
+        <v>3549.71</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1357,6 +1425,9 @@
       <c r="L23" t="n">
         <v>377600.16</v>
       </c>
+      <c r="M23" t="n">
+        <v>377626.87</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1395,6 +1466,9 @@
       <c r="L24" t="n">
         <v>150114.23</v>
       </c>
+      <c r="M24" t="n">
+        <v>149467.64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1433,6 +1507,9 @@
       <c r="L25" t="n">
         <v>231477.67</v>
       </c>
+      <c r="M25" t="n">
+        <v>231284.39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1471,6 +1548,9 @@
       <c r="L26" t="n">
         <v>219881.48</v>
       </c>
+      <c r="M26" t="n">
+        <v>220045.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1509,6 +1589,9 @@
       <c r="L27" t="n">
         <v>282284.23</v>
       </c>
+      <c r="M27" t="n">
+        <v>275186.63</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1549,6 +1632,9 @@
       <c r="L28" t="n">
         <v>338625.8</v>
       </c>
+      <c r="M28" t="n">
+        <v>338367.48</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1589,6 +1675,9 @@
       <c r="L29" t="n">
         <v>23663.77</v>
       </c>
+      <c r="M29" t="n">
+        <v>23749.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1629,6 +1718,9 @@
       <c r="L30" t="n">
         <v>2200855.55</v>
       </c>
+      <c r="M30" t="n">
+        <v>2200107.42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1669,6 +1761,9 @@
       <c r="L31" t="n">
         <v>45761.4</v>
       </c>
+      <c r="M31" t="n">
+        <v>45778.99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1709,6 +1804,9 @@
       <c r="L32" t="n">
         <v>6536.51</v>
       </c>
+      <c r="M32" t="n">
+        <v>6541.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1749,6 +1847,9 @@
       <c r="L33" t="n">
         <v>133447.97</v>
       </c>
+      <c r="M33" t="n">
+        <v>133435.68</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1789,6 +1890,9 @@
       <c r="L34" t="n">
         <v>194427.05</v>
       </c>
+      <c r="M34" t="n">
+        <v>194376.22</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1829,6 +1933,9 @@
       <c r="L35" t="n">
         <v>90611.62</v>
       </c>
+      <c r="M35" t="n">
+        <v>79838.49000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1869,6 +1976,9 @@
       <c r="L36" t="n">
         <v>8859.559999999999</v>
       </c>
+      <c r="M36" t="n">
+        <v>8863.08</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1909,6 +2019,9 @@
       <c r="L37" t="n">
         <v>46086.63</v>
       </c>
+      <c r="M37" t="n">
+        <v>45974.75</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1949,6 +2062,9 @@
       <c r="L38" t="n">
         <v>58341.68</v>
       </c>
+      <c r="M38" t="n">
+        <v>58336.03</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1988,6 +2104,9 @@
       </c>
       <c r="L39" t="n">
         <v>42432.19</v>
+      </c>
+      <c r="M39" t="n">
+        <v>42410.13</v>
       </c>
     </row>
     <row r="40">
@@ -2027,6 +2146,9 @@
       <c r="L40" t="n">
         <v>96883.75</v>
       </c>
+      <c r="M40" t="n">
+        <v>96881.86</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2067,6 +2189,9 @@
       <c r="L41" t="n">
         <v>72369.96000000001</v>
       </c>
+      <c r="M41" t="n">
+        <v>72486.10000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2107,6 +2232,9 @@
       <c r="L42" t="n">
         <v>160716.58</v>
       </c>
+      <c r="M42" t="n">
+        <v>160811.86</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2147,6 +2275,9 @@
       <c r="L43" t="n">
         <v>111347.45</v>
       </c>
+      <c r="M43" t="n">
+        <v>108150.53</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2187,6 +2318,9 @@
       <c r="L44" t="n">
         <v>141741.46</v>
       </c>
+      <c r="M44" t="n">
+        <v>141340.28</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2226,6 +2360,9 @@
       </c>
       <c r="L45" t="n">
         <v>526213.1899999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>526899.37</v>
       </c>
     </row>
     <row r="46">
@@ -2251,6 +2388,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2291,6 +2429,9 @@
       <c r="L47" t="n">
         <v>1308712.82</v>
       </c>
+      <c r="M47" t="n">
+        <v>1308688.55</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2330,6 +2471,9 @@
       </c>
       <c r="L48" t="n">
         <v>38677.64</v>
+      </c>
+      <c r="M48" t="n">
+        <v>38683.42</v>
       </c>
     </row>
     <row r="49">
@@ -2355,6 +2499,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2395,6 +2540,9 @@
       <c r="L50" t="n">
         <v>219122.43</v>
       </c>
+      <c r="M50" t="n">
+        <v>219131.26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2434,6 +2582,9 @@
       </c>
       <c r="L51" t="n">
         <v>10079631.58</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10080037.83</v>
       </c>
     </row>
   </sheetData>
